--- a/src/database/Cinemas.xlsx
+++ b/src/database/Cinemas.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>D01</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>XXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>XXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOXXOOOOOOOOOOOOOXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/database/Cinemas.xlsx
+++ b/src/database/Cinemas.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>D01</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>XXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOXXOOOOOOOOOOOOOXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>XXOXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOXXOOOOOOOOOOOOOXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
